--- a/bay.xlsx
+++ b/bay.xlsx
@@ -1,29 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enjoy\Desktop\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30D8160-A2B7-43EA-90C2-456C027DE411}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC746FD-FF0A-40C7-AE41-B9EBE8783ABB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="666" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="666" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quote" sheetId="1" r:id="rId1"/>
     <sheet name="vendor" sheetId="2" r:id="rId2"/>
     <sheet name="template" sheetId="3" r:id="rId3"/>
     <sheet name="template_e" sheetId="4" r:id="rId4"/>
+    <sheet name="订单 ALIGN" sheetId="5" r:id="rId5"/>
+    <sheet name="订单 PRIME" sheetId="6" r:id="rId6"/>
+    <sheet name="订单 SWIFT" sheetId="7" r:id="rId7"/>
+    <sheet name="订单 亿威" sheetId="8" r:id="rId8"/>
+    <sheet name="订单 屹领" sheetId="9" r:id="rId9"/>
+    <sheet name="订单 赛方" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="207">
   <si>
     <t>序号</t>
   </si>
@@ -73,236 +79,232 @@
     <t>润洽</t>
   </si>
   <si>
+    <t>美隆航</t>
+  </si>
+  <si>
+    <t>赛方</t>
+  </si>
+  <si>
+    <t>连接器 MS27472T18F35PB</t>
+  </si>
+  <si>
+    <t>MS27472T18F35PB</t>
+  </si>
+  <si>
+    <t>MIL-DTL-38999</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>工艺装备中心</t>
+  </si>
+  <si>
+    <t>ARJ21</t>
+  </si>
+  <si>
+    <t>连接器 M83723/74R1407N</t>
+  </si>
+  <si>
+    <t>M83723/74R1407N</t>
+  </si>
+  <si>
+    <t>MIL-DTL-83723</t>
+  </si>
+  <si>
+    <t>连接器 D38999/20JJ04PN</t>
+  </si>
+  <si>
+    <t>D38999/20JJ04PN / D38999/20JJ4PN</t>
+  </si>
+  <si>
+    <t>MIL-DTL-38999/20</t>
+  </si>
+  <si>
+    <t>连接器 MS27472T22F55PC</t>
+  </si>
+  <si>
+    <t>MS27472T22F55PC</t>
+  </si>
+  <si>
+    <t>连接器 MS24264R18B31P8</t>
+  </si>
+  <si>
+    <t>MS24264R18B31P8</t>
+  </si>
+  <si>
+    <t>MIL-DTL-26500</t>
+  </si>
+  <si>
+    <t>连接器 MS24264R16B10PN</t>
+  </si>
+  <si>
+    <t>MS24264R16B10PN</t>
+  </si>
+  <si>
+    <t>连接器 EN2997SE01006M6</t>
+  </si>
+  <si>
+    <t>EN2997SE01006M6</t>
+  </si>
+  <si>
+    <t>无规范</t>
+  </si>
+  <si>
+    <t>连接器 EN2997RS01415MN</t>
+  </si>
+  <si>
+    <t>EN2997RS01415MN</t>
+  </si>
+  <si>
+    <t>连接器 MS24266R12B12PN</t>
+  </si>
+  <si>
+    <t>MS24266R12B12PN</t>
+  </si>
+  <si>
+    <t>连接器 MS24264R12B12SN</t>
+  </si>
+  <si>
+    <t>MS24264R12B12SN</t>
+  </si>
+  <si>
+    <t>连接器 MS27472T22F35P</t>
+  </si>
+  <si>
+    <t>MS27472T22F35P</t>
+  </si>
+  <si>
+    <t>连接器 MS24264R18B31P9</t>
+  </si>
+  <si>
+    <t>MS24264R18B31P9</t>
+  </si>
+  <si>
+    <t>尾附件 527-149NFPA3B4C5</t>
+  </si>
+  <si>
+    <t>527-149NFPA3B4C5</t>
+  </si>
+  <si>
+    <t>尾附件 527-056NFP1030405A</t>
+  </si>
+  <si>
+    <t>527-056NFP1030405A</t>
+  </si>
+  <si>
+    <t>连接器 D38999/20FB05PN</t>
+  </si>
+  <si>
+    <t>D38999/20FB05PN / D38999/20FB5PN</t>
+  </si>
+  <si>
+    <t>尾线夹 M85049/52-1-22W</t>
+  </si>
+  <si>
+    <t>M85049/52-1-22W</t>
+  </si>
+  <si>
+    <t>AS85049</t>
+  </si>
+  <si>
+    <t>尾附件 527-108NFPA4B4C4D4E4F4B</t>
+  </si>
+  <si>
+    <t>527-108NFPA4B4C4D4E4F4B</t>
+  </si>
+  <si>
+    <t>连接器 M24308/4-5F</t>
+  </si>
+  <si>
+    <t>M24308/4-5F</t>
+  </si>
+  <si>
+    <t>MIL-DTL-24308</t>
+  </si>
+  <si>
+    <t>连接器 EN2997SE00803CN</t>
+  </si>
+  <si>
+    <t>EN2997SE00803CN</t>
+  </si>
+  <si>
+    <t>连接器 MS3454W24-22P</t>
+  </si>
+  <si>
+    <t>MS3454W24-22P</t>
+  </si>
+  <si>
+    <t>AMPHENOL</t>
+  </si>
+  <si>
+    <t>尾附件 527-284NFPA4B4C3</t>
+  </si>
+  <si>
+    <t>527-284NFPA4B4C3</t>
+  </si>
+  <si>
+    <t>连接器 D38999/20FE06PN</t>
+  </si>
+  <si>
+    <t>D38999/20FE06PN / D38999/20FE6PN</t>
+  </si>
+  <si>
+    <t>连接器 EN2997RS01005FN</t>
+  </si>
+  <si>
+    <t>EN2997RS01005FN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Align aerospace LLC </t>
+  </si>
+  <si>
+    <t>ARMOR</t>
+  </si>
+  <si>
+    <t>Armor aerospace Inc</t>
+  </si>
+  <si>
+    <t>中航供销</t>
+  </si>
+  <si>
+    <t>中国航空工业供销上海有限公司</t>
+  </si>
+  <si>
+    <t>浩略</t>
+  </si>
+  <si>
+    <t>上海浩略实业有限公司</t>
+  </si>
+  <si>
+    <t>JOHNSON</t>
+  </si>
+  <si>
+    <t>Johnson aerospace group limited</t>
+  </si>
+  <si>
+    <t>郑州恒圣凯商贸有限公司</t>
+  </si>
+  <si>
+    <t>上海亿威航空器材科技有限公司</t>
+  </si>
+  <si>
+    <t>天津美隆航科技发展有限公司</t>
+  </si>
+  <si>
     <t>美瑞</t>
   </si>
   <si>
-    <t>美隆航</t>
-  </si>
-  <si>
-    <t>赛方</t>
-  </si>
-  <si>
-    <t>接头 AN816-21D</t>
-  </si>
-  <si>
-    <t>AN816-21D</t>
-  </si>
-  <si>
-    <t>无规范</t>
-  </si>
-  <si>
-    <t>EA</t>
-  </si>
-  <si>
-    <t>工艺装备中心</t>
-  </si>
-  <si>
-    <t>ARJ21</t>
-  </si>
-  <si>
-    <t>电线电缆 M27500-22WK1N24</t>
-  </si>
-  <si>
-    <t>M27500-22WK1N24
-长：1500毫米 参考总长度：：3000.0毫米</t>
-  </si>
-  <si>
-    <t>NEMA WC 27500</t>
-  </si>
-  <si>
-    <t>MM</t>
-  </si>
-  <si>
-    <t>3000.0 (2.0)根</t>
-  </si>
-  <si>
-    <t>C919</t>
-  </si>
-  <si>
-    <t>铆钉 NAS1097AD6-6</t>
-  </si>
-  <si>
-    <t>NAS1097AD6-6</t>
-  </si>
-  <si>
-    <t>NASM5674</t>
-  </si>
-  <si>
-    <t>培训中心</t>
-  </si>
-  <si>
-    <t>培训项目</t>
-  </si>
-  <si>
-    <t>尾线夹 M85049/38S9N</t>
-  </si>
-  <si>
-    <t>M85049/38S9N</t>
-  </si>
-  <si>
-    <t>AS85049</t>
-  </si>
-  <si>
-    <t>转接头 D10008D08</t>
-  </si>
-  <si>
-    <t>D10008D08</t>
-  </si>
-  <si>
-    <t>铆钉 MS20426AD5-5</t>
-  </si>
-  <si>
-    <t>MS20426AD5-5</t>
-  </si>
-  <si>
-    <t>铆钉 MS20470AD5-5</t>
-  </si>
-  <si>
-    <t>MS20470AD5-5</t>
-  </si>
-  <si>
-    <t>高温绑扎式标签 CELB0004-01-9</t>
-  </si>
-  <si>
-    <t>CELB0004-01-9
-HTCM-SCE-1/4-4H-9</t>
-  </si>
-  <si>
-    <t>螺钉 NAS1096-1-14</t>
-  </si>
-  <si>
-    <t>NAS1096-1-14</t>
-  </si>
-  <si>
-    <t>NASM7839</t>
-  </si>
-  <si>
-    <t>热缩标识套管 CELB0001-04-9</t>
-  </si>
-  <si>
-    <t>CELB0001-04-9
-TMS-SCE-1K-1/4-2.0-
-9</t>
-  </si>
-  <si>
-    <t>密封圈 MS28778-4</t>
-  </si>
-  <si>
-    <t>MS28778-4</t>
-  </si>
-  <si>
-    <t>AMS-P-5510</t>
-  </si>
-  <si>
-    <t>弯管接头 D10021A-06</t>
-  </si>
-  <si>
-    <t>D10021A-06</t>
-  </si>
-  <si>
-    <t>托板螺母 MS21059L3</t>
-  </si>
-  <si>
-    <t>MS21059L3</t>
-  </si>
-  <si>
-    <t>NASM25027</t>
-  </si>
-  <si>
-    <t>铆钉 MS20470AD5-7</t>
-  </si>
-  <si>
-    <t>MS20470AD5-7</t>
-  </si>
-  <si>
-    <t>直通管路连接件 MS21902J6</t>
-  </si>
-  <si>
-    <t>MS21902J6</t>
-  </si>
-  <si>
-    <t>AS18280</t>
-  </si>
-  <si>
-    <t>连接器 D38999/20KA98PA</t>
-  </si>
-  <si>
-    <t>D38999/20KA98PA</t>
-  </si>
-  <si>
-    <t>MIL-DTL-38999</t>
-  </si>
-  <si>
-    <t>接头 AN816-4D</t>
-  </si>
-  <si>
-    <t>AN816-4D</t>
-  </si>
-  <si>
-    <t>直通管路连接件 MS21916J8-6</t>
-  </si>
-  <si>
-    <t>MS21916J8-6</t>
-  </si>
-  <si>
-    <t>铆钉 MS20426AD5-6</t>
-  </si>
-  <si>
-    <t>MS20426AD5-6</t>
-  </si>
-  <si>
-    <t>铆钉 MS20470AD5-6</t>
-  </si>
-  <si>
-    <t>MS20470AD5-6</t>
-  </si>
-  <si>
-    <t>铆钉 MS20470AD6-7</t>
-  </si>
-  <si>
-    <t>MS20470AD6-7</t>
-  </si>
-  <si>
-    <t>铆钉 MS20470AD6-6</t>
-  </si>
-  <si>
-    <t>MS20470AD6-6</t>
-  </si>
-  <si>
-    <t>连接器 617165011</t>
-  </si>
-  <si>
-    <t>617165011</t>
-  </si>
-  <si>
-    <t>永久端-无扩口端45°弯管接头 D10137-06</t>
-  </si>
-  <si>
-    <t>D10137-06</t>
-  </si>
-  <si>
-    <t>绑扎带 AA52084-C-2, Brown, No Tracer</t>
-  </si>
-  <si>
-    <t>AA52084-C-2, BROWN, NO TRACER</t>
-  </si>
-  <si>
-    <t>A-A-52084</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>铆钉 MS20470AD6-5</t>
-  </si>
-  <si>
-    <t>MS20470AD6-5</t>
-  </si>
-  <si>
-    <t>膨胀螺栓 10*120</t>
-  </si>
-  <si>
-    <t>10*120</t>
+    <t>北京美瑞航太科技有限公司</t>
+  </si>
+  <si>
+    <t>PRIME Technology Corp.</t>
+  </si>
+  <si>
+    <t>上海润洽电子科技有限公司</t>
+  </si>
+  <si>
+    <t>北京赛方德驰科技有限公司</t>
   </si>
   <si>
     <t>XINJIJIAN</t>
@@ -311,58 +313,16 @@
     <t>XINJIJIAN TECHNOLOGY DEVELOPMENT CO., LTD.</t>
   </si>
   <si>
-    <t>天津美隆航科技发展有限公司</t>
-  </si>
-  <si>
-    <t>ARMOR</t>
-  </si>
-  <si>
-    <t>Armor aerospace Inc</t>
-  </si>
-  <si>
-    <t>Align aerospace LLC</t>
+    <t>伟司科</t>
+  </si>
+  <si>
+    <t>伟司科航空部件贸易（上海）有限公司</t>
   </si>
   <si>
     <t>Swift Aerospace Services Ltd.</t>
   </si>
   <si>
-    <t>JOHNSON</t>
-  </si>
-  <si>
-    <t>Johnson aerospace group limited</t>
-  </si>
-  <si>
-    <t>PRIME Technology Corp.</t>
-  </si>
-  <si>
-    <t>上海亿威航空器材科技有限公司</t>
-  </si>
-  <si>
-    <t>郑州恒圣凯商贸有限公司</t>
-  </si>
-  <si>
-    <t>北京赛方德驰科技有限公司</t>
-  </si>
-  <si>
-    <t>上海润洽电子科技有限公司</t>
-  </si>
-  <si>
-    <t>伟司科</t>
-  </si>
-  <si>
-    <t>伟司科航空部件贸易（上海）有限公司</t>
-  </si>
-  <si>
     <t>上海屹领电子科技有限公司</t>
-  </si>
-  <si>
-    <t>浩略</t>
-  </si>
-  <si>
-    <t>上海浩略实业有限公司</t>
-  </si>
-  <si>
-    <t>北京美瑞航太科技有限公司</t>
   </si>
   <si>
     <t>上海飞机制造有限公司B类器材采购订货单</t>
@@ -415,6 +375,9 @@
     <t>4周</t>
   </si>
   <si>
+    <t>C919</t>
+  </si>
+  <si>
     <t>人民币大写金额</t>
   </si>
   <si>
@@ -576,6 +539,129 @@
   </si>
   <si>
     <t>乙方联系方式TEL：</t>
+  </si>
+  <si>
+    <t>ARJ21B-BN19028</t>
+  </si>
+  <si>
+    <t>35281,35297,35359,35505,35573</t>
+  </si>
+  <si>
+    <t>$2222.36</t>
+  </si>
+  <si>
+    <t>TWO THOUSAND, TWO HUNDRED AND TWENTY-TWO POINT THREE SIX</t>
+  </si>
+  <si>
+    <t>CORSAIR</t>
+  </si>
+  <si>
+    <t>2 wks</t>
+  </si>
+  <si>
+    <t>RMS</t>
+  </si>
+  <si>
+    <t>DEUTSCH</t>
+  </si>
+  <si>
+    <t>组装件</t>
+  </si>
+  <si>
+    <t>BN-2019-079</t>
+  </si>
+  <si>
+    <t>35291</t>
+  </si>
+  <si>
+    <t>$89.15</t>
+  </si>
+  <si>
+    <t>EIGHTY-NINE POINT ONE FIVE</t>
+  </si>
+  <si>
+    <t>CORS</t>
+  </si>
+  <si>
+    <t>9W</t>
+  </si>
+  <si>
+    <t>BN-2019-080</t>
+  </si>
+  <si>
+    <t>35359</t>
+  </si>
+  <si>
+    <t>$569.90</t>
+  </si>
+  <si>
+    <t>FIVE HUNDRED AND SIXTY-NINE POINT NINE</t>
+  </si>
+  <si>
+    <t>SOURIAU</t>
+  </si>
+  <si>
+    <t>5 weeks</t>
+  </si>
+  <si>
+    <t>ARJ21B-BN19029</t>
+  </si>
+  <si>
+    <t>35546</t>
+  </si>
+  <si>
+    <t>￥25650.00</t>
+  </si>
+  <si>
+    <t>贰万伍仟陆佰伍拾元整（￥人民币25650.00）（含16%增值税）</t>
+  </si>
+  <si>
+    <t>glenair</t>
+  </si>
+  <si>
+    <t>8-10WEEKS</t>
+  </si>
+  <si>
+    <t>ARJ21B-BN19030</t>
+  </si>
+  <si>
+    <t>35546,35573,49501</t>
+  </si>
+  <si>
+    <t>￥264411.08</t>
+  </si>
+  <si>
+    <t>贰拾陆万肆仟肆佰壹拾壹元零捌分（￥人民币264411.08）（含16%增值税）</t>
+  </si>
+  <si>
+    <t>Glenair</t>
+  </si>
+  <si>
+    <t>8周</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>BN-2019-081</t>
+  </si>
+  <si>
+    <t>35281,35291,35546,35573</t>
+  </si>
+  <si>
+    <t>￥4756.96</t>
+  </si>
+  <si>
+    <t>肆仟柒佰伍拾陆元玖角陆分（￥人民币4756.96）（含16%增值税）</t>
+  </si>
+  <si>
+    <t>7W</t>
+  </si>
+  <si>
+    <t>SUNB</t>
+  </si>
+  <si>
+    <t>DEUT</t>
   </si>
 </sst>
 </file>
@@ -589,7 +675,7 @@
     <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="&quot;￥&quot;#,##0.00_);\(&quot;￥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,13 +732,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -930,182 +1009,181 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="26" fontId="20" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="26" fontId="19" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="26" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="26" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1420,10 +1498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1438,7 +1516,7 @@
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1493,1145 +1571,1108 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2">
+        <v>35297</v>
+      </c>
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>47622</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2">
-        <v>900</v>
-      </c>
-      <c r="Q2">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="J2">
+        <v>3123.9412400000001</v>
+      </c>
+      <c r="K2">
+        <v>3426.8126000000002</v>
+      </c>
+      <c r="L2">
+        <v>3975.32672</v>
+      </c>
+      <c r="R2">
+        <v>3746.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
+      <c r="E3">
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>47758</v>
+        <v>35297</v>
       </c>
       <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3">
-        <v>50292</v>
+      <c r="J3">
+        <v>3034.13636</v>
+      </c>
+      <c r="K3">
+        <v>3046.022300000001</v>
+      </c>
+      <c r="L3">
+        <v>4916.5170800000014</v>
+      </c>
+      <c r="N3">
+        <v>4853.1000000000004</v>
       </c>
       <c r="P3">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>17250</v>
+      </c>
+      <c r="R3">
+        <v>3467.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>35297</v>
+      </c>
+      <c r="H4" t="s">
         <v>22</v>
       </c>
-      <c r="F4">
-        <v>5000</v>
-      </c>
-      <c r="G4">
-        <v>46913</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="J4">
-        <v>1520.66</v>
-      </c>
-      <c r="L4">
-        <v>2401.1</v>
+        <v>2116.013528</v>
+      </c>
+      <c r="N4">
+        <v>4475.5200000000004</v>
+      </c>
+      <c r="O4">
+        <v>18000</v>
       </c>
       <c r="P4">
-        <v>7000</v>
+        <v>5070</v>
       </c>
       <c r="Q4">
-        <v>1824</v>
-      </c>
-      <c r="R4">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>24742.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>35291</v>
+      </c>
+      <c r="H5" t="s">
         <v>22</v>
       </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>47758</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>23</v>
       </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
       <c r="J5">
-        <v>332.41817600000002</v>
+        <v>2512.7397919999999</v>
       </c>
       <c r="K5">
-        <v>728.26400000000001</v>
-      </c>
-      <c r="L5">
-        <v>2577.1880000000001</v>
-      </c>
-      <c r="M5">
-        <v>280</v>
+        <v>984.91226000000017</v>
       </c>
       <c r="N5">
-        <v>164.22</v>
+        <v>2344.44</v>
       </c>
       <c r="P5">
-        <v>240</v>
-      </c>
-      <c r="Q5">
-        <v>351.5</v>
+        <v>3042</v>
       </c>
       <c r="R5">
-        <v>2982.4</v>
-      </c>
-      <c r="S5">
-        <v>307.27999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>1058.4043925000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6">
+        <v>35291</v>
+      </c>
+      <c r="H6" t="s">
         <v>22</v>
       </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>47766</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>23</v>
       </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
       <c r="J6">
-        <v>1677.9065840000001</v>
-      </c>
-      <c r="S6">
-        <v>2261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>872.83224800000005</v>
+      </c>
+      <c r="K6">
+        <v>905.49657200000013</v>
+      </c>
+      <c r="L6">
+        <v>2056.8479600000001</v>
+      </c>
+      <c r="N6">
+        <v>1180.6199999999999</v>
+      </c>
+      <c r="P6">
+        <v>1380</v>
+      </c>
+      <c r="R6">
+        <v>824.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>35281</v>
+      </c>
+      <c r="H7" t="s">
         <v>22</v>
       </c>
-      <c r="F7">
-        <v>5000</v>
-      </c>
-      <c r="G7">
-        <v>46913</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="J7">
-        <v>1520.66</v>
-      </c>
-      <c r="L7">
-        <v>2401.1</v>
+        <v>695.33554400000003</v>
+      </c>
+      <c r="K7">
+        <v>719.45960000000002</v>
+      </c>
+      <c r="N7">
+        <v>628.74</v>
       </c>
       <c r="P7">
-        <v>7000</v>
-      </c>
-      <c r="Q7">
-        <v>2375</v>
+        <v>800</v>
       </c>
       <c r="R7">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>607.67999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8">
+        <v>35359</v>
+      </c>
+      <c r="H8" t="s">
         <v>22</v>
       </c>
-      <c r="F8">
-        <v>5000</v>
-      </c>
-      <c r="G8">
-        <v>46913</v>
-      </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="J8">
-        <v>1520.66</v>
+        <v>1374.1547840000001</v>
+      </c>
+      <c r="K8">
+        <v>1431.383384</v>
       </c>
       <c r="L8">
-        <v>2401.1</v>
+        <v>2456.3916319999998</v>
+      </c>
+      <c r="N8">
+        <v>3462.48</v>
       </c>
       <c r="P8">
-        <v>7000</v>
-      </c>
-      <c r="Q8">
-        <v>1187.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>10600</v>
+      </c>
+      <c r="R8">
+        <v>1462.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9">
+        <v>35359</v>
+      </c>
+      <c r="H9" t="s">
         <v>22</v>
       </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>47758</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>23</v>
       </c>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9">
-        <v>5790.7940000000008</v>
-      </c>
-      <c r="M9">
-        <v>6225</v>
+      <c r="K9">
+        <v>11108.651599999999</v>
+      </c>
+      <c r="L9">
+        <v>5217.6275599999999</v>
       </c>
       <c r="N9">
-        <v>100</v>
+        <v>7319.6</v>
+      </c>
+      <c r="P9">
+        <v>11000</v>
       </c>
       <c r="Q9">
-        <v>1201.75</v>
-      </c>
-      <c r="R9">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>13647.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <v>35281</v>
+      </c>
+      <c r="H10" t="s">
         <v>22</v>
       </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10">
-        <v>47755</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>23</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
       <c r="J10">
-        <v>508.154</v>
+        <v>686.35505599999999</v>
       </c>
       <c r="K10">
-        <v>640.22</v>
+        <v>728.26400000000001</v>
       </c>
       <c r="L10">
-        <v>2577.1880000000001</v>
+        <v>2147.885456</v>
+      </c>
+      <c r="N10">
+        <v>615.1</v>
+      </c>
+      <c r="O10">
+        <v>12960</v>
       </c>
       <c r="P10">
-        <v>2000</v>
-      </c>
-      <c r="Q10">
-        <v>475</v>
+        <v>910</v>
       </c>
       <c r="R10">
-        <v>2112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>596.67999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11">
+        <v>35281</v>
+      </c>
+      <c r="H11" t="s">
         <v>22</v>
       </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>47758</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>23</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
       <c r="J11">
-        <v>3457.6280000000002</v>
-      </c>
-      <c r="M11">
-        <v>4050</v>
+        <v>675.96586400000001</v>
+      </c>
+      <c r="K11">
+        <v>706.25299999999993</v>
+      </c>
+      <c r="L11">
+        <v>1900.1296400000001</v>
       </c>
       <c r="N11">
-        <v>1875</v>
-      </c>
-      <c r="Q11">
-        <v>1188</v>
+        <v>689.02</v>
+      </c>
+      <c r="O11">
+        <v>12960</v>
+      </c>
+      <c r="P11">
+        <v>910</v>
       </c>
       <c r="R11">
-        <v>2112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>585.67999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12">
+        <v>35281</v>
+      </c>
+      <c r="H12" t="s">
         <v>22</v>
       </c>
-      <c r="F12">
-        <v>20</v>
-      </c>
-      <c r="G12">
-        <v>47696</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>23</v>
       </c>
-      <c r="I12" t="s">
-        <v>24</v>
-      </c>
       <c r="J12">
-        <v>332.770352</v>
+        <v>7044.7166480000014</v>
       </c>
       <c r="K12">
-        <v>257.05251199999998</v>
+        <v>7751.5338800000009</v>
       </c>
       <c r="L12">
-        <v>640.22</v>
+        <v>7383.8621359999997</v>
+      </c>
+      <c r="N12">
+        <v>11958.12</v>
+      </c>
+      <c r="O12">
+        <v>35100</v>
+      </c>
+      <c r="P12">
+        <v>13104</v>
       </c>
       <c r="Q12">
-        <v>475</v>
+        <v>17046.72</v>
       </c>
       <c r="R12">
-        <v>2575</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>8748.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
         <v>21</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13">
+        <v>35291</v>
+      </c>
+      <c r="H13" t="s">
         <v>22</v>
       </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>47766</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>23</v>
       </c>
-      <c r="I13" t="s">
-        <v>24</v>
-      </c>
       <c r="J13">
-        <v>3666.9966319999999</v>
-      </c>
-      <c r="Q13">
-        <v>5700</v>
-      </c>
-      <c r="S13">
-        <v>4664.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>872.83224800000005</v>
+      </c>
+      <c r="L13">
+        <v>2056.8479600000001</v>
+      </c>
+      <c r="R13">
+        <v>824.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14">
+        <v>35573</v>
+      </c>
+      <c r="H14" t="s">
         <v>22</v>
       </c>
-      <c r="F14">
-        <v>250</v>
-      </c>
-      <c r="G14">
-        <v>46913</v>
-      </c>
-      <c r="H14" t="s">
-        <v>34</v>
-      </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14">
-        <v>1124.462</v>
-      </c>
-      <c r="L14">
-        <v>970.38499999999999</v>
+        <v>23</v>
+      </c>
+      <c r="M14">
+        <v>161250</v>
+      </c>
+      <c r="N14">
+        <v>55800</v>
       </c>
       <c r="P14">
-        <v>4000</v>
+        <v>96000</v>
       </c>
       <c r="Q14">
-        <v>3087.5</v>
-      </c>
-      <c r="R14">
-        <v>2157.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>68775.88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15">
+        <v>35573</v>
+      </c>
+      <c r="H15" t="s">
         <v>22</v>
       </c>
-      <c r="F15">
-        <v>5000</v>
-      </c>
-      <c r="G15">
-        <v>46913</v>
-      </c>
-      <c r="H15" t="s">
-        <v>34</v>
-      </c>
       <c r="I15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15">
-        <v>1960.88</v>
-      </c>
-      <c r="L15">
-        <v>2401.1</v>
+        <v>23</v>
+      </c>
+      <c r="M15">
+        <v>157500</v>
+      </c>
+      <c r="N15">
+        <v>63600</v>
       </c>
       <c r="P15">
-        <v>10000</v>
+        <v>110400</v>
       </c>
       <c r="Q15">
-        <v>2508</v>
-      </c>
-      <c r="R15">
-        <v>2550</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>123077.44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16">
+        <v>35546</v>
+      </c>
+      <c r="H16" t="s">
         <v>22</v>
       </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <v>47766</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>23</v>
       </c>
-      <c r="I16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16">
-        <v>601.12846400000001</v>
+      <c r="M16">
+        <v>5700</v>
+      </c>
+      <c r="N16">
+        <v>47700</v>
       </c>
       <c r="P16">
-        <v>1280</v>
+        <v>82800</v>
       </c>
       <c r="Q16">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>100687.56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17">
+        <v>35573</v>
+      </c>
+      <c r="H17" t="s">
         <v>22</v>
       </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>47758</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>23</v>
       </c>
-      <c r="I17" t="s">
-        <v>30</v>
-      </c>
       <c r="J17">
-        <v>875.12139200000013</v>
+        <v>1785.4963519999999</v>
       </c>
       <c r="L17">
-        <v>3400.3993999999998</v>
+        <v>3311.8271360000008</v>
       </c>
       <c r="N17">
-        <v>791.3</v>
-      </c>
-      <c r="O17">
-        <v>12000</v>
+        <v>3675.84</v>
       </c>
       <c r="P17">
-        <v>960</v>
-      </c>
-      <c r="Q17">
-        <v>1090</v>
+        <v>3120</v>
       </c>
       <c r="R17">
-        <v>2888.1</v>
-      </c>
-      <c r="S17">
-        <v>1034.8800000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>1979.76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
         <v>21</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18">
+        <v>35546</v>
+      </c>
+      <c r="H18" t="s">
         <v>22</v>
       </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>47622</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>23</v>
       </c>
-      <c r="I18" t="s">
-        <v>24</v>
+      <c r="J18">
+        <v>414.47518400000001</v>
+      </c>
+      <c r="K18">
+        <v>816.30799999999999</v>
       </c>
       <c r="L18">
-        <v>2973.386</v>
+        <v>1916.8579999999999</v>
+      </c>
+      <c r="N18">
+        <v>418.32</v>
       </c>
       <c r="P18">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="Q18">
-        <v>475</v>
+        <v>3029.7</v>
       </c>
       <c r="R18">
-        <v>2079.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>294.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19">
+        <v>35573</v>
+      </c>
+      <c r="H19" t="s">
         <v>22</v>
       </c>
-      <c r="F19">
-        <v>4</v>
-      </c>
-      <c r="G19">
-        <v>47766</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>23</v>
       </c>
-      <c r="I19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19">
-        <v>870.89528000000007</v>
-      </c>
-      <c r="L19">
-        <v>1001.2003999999999</v>
+      <c r="M19">
+        <v>306300</v>
+      </c>
+      <c r="N19">
+        <v>29180</v>
       </c>
       <c r="P19">
-        <v>2000</v>
+        <v>53000</v>
       </c>
       <c r="Q19">
-        <v>962.16</v>
-      </c>
-      <c r="R19">
-        <v>3472.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>81551.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20">
+        <v>35546</v>
+      </c>
+      <c r="H20" t="s">
         <v>22</v>
       </c>
-      <c r="F20">
-        <v>5000</v>
-      </c>
-      <c r="G20">
-        <v>46913</v>
-      </c>
-      <c r="H20" t="s">
-        <v>34</v>
-      </c>
       <c r="I20" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20">
-        <v>1520.66</v>
-      </c>
-      <c r="L20">
-        <v>2401.1</v>
+        <v>23</v>
+      </c>
+      <c r="M20">
+        <v>19950</v>
+      </c>
+      <c r="N20">
+        <v>116720</v>
       </c>
       <c r="P20">
-        <v>7000</v>
+        <v>212000</v>
       </c>
       <c r="Q20">
-        <v>860.69999999999993</v>
-      </c>
-      <c r="R20">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>235784.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21">
+        <v>35546</v>
+      </c>
+      <c r="H21" t="s">
         <v>22</v>
       </c>
-      <c r="F21">
-        <v>5000</v>
-      </c>
-      <c r="G21">
-        <v>46913</v>
-      </c>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
       <c r="I21" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="J21">
-        <v>1520.66</v>
+        <v>696.74424800000008</v>
+      </c>
+      <c r="K21">
+        <v>658.70924000000002</v>
+      </c>
+      <c r="L21">
+        <v>2005.9585279999999</v>
+      </c>
+      <c r="N21">
+        <v>378.64</v>
       </c>
       <c r="P21">
-        <v>7000</v>
+        <v>1020</v>
       </c>
       <c r="Q21">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>3024.7</v>
+      </c>
+      <c r="R21">
+        <v>458.41685224999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <v>35573</v>
+      </c>
+      <c r="H22" t="s">
         <v>22</v>
       </c>
-      <c r="F22">
-        <v>5000</v>
-      </c>
-      <c r="G22">
-        <v>46913</v>
-      </c>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
       <c r="I22" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22">
-        <v>1960.88</v>
-      </c>
-      <c r="L22">
-        <v>3281.5400000000009</v>
+        <v>23</v>
+      </c>
+      <c r="K22">
+        <v>13695.384319999999</v>
+      </c>
+      <c r="N22">
+        <v>5213.92</v>
+      </c>
+      <c r="O22">
+        <v>16320</v>
       </c>
       <c r="P22">
-        <v>10000</v>
-      </c>
-      <c r="Q22">
-        <v>2850</v>
-      </c>
-      <c r="R22">
-        <v>2550</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>5360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>35505</v>
+      </c>
+      <c r="H23" t="s">
         <v>22</v>
       </c>
-      <c r="F23">
-        <v>5000</v>
-      </c>
-      <c r="G23">
-        <v>46913</v>
-      </c>
-      <c r="H23" t="s">
-        <v>34</v>
-      </c>
       <c r="I23" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="J23">
-        <v>1960.88</v>
-      </c>
-      <c r="K23">
-        <v>2401.1</v>
-      </c>
-      <c r="L23">
-        <v>3281.5400000000009</v>
+        <v>2488.0874720000002</v>
+      </c>
+      <c r="N23">
+        <v>7008.96</v>
       </c>
       <c r="P23">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="Q23">
-        <v>2736</v>
+        <v>13069</v>
       </c>
       <c r="R23">
-        <v>3050</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>2804.72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
         <v>21</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24">
+        <v>35546</v>
+      </c>
+      <c r="H24" t="s">
         <v>22</v>
       </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>48019</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>23</v>
       </c>
-      <c r="I24" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24">
-        <v>8585.3105600000017</v>
-      </c>
-      <c r="M24">
-        <v>5383</v>
+      <c r="N24">
+        <v>108720</v>
+      </c>
+      <c r="P24">
+        <v>179200</v>
       </c>
       <c r="Q24">
-        <v>7400</v>
-      </c>
-      <c r="R24">
-        <v>11506.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>154186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
         <v>21</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25">
+        <v>35573</v>
+      </c>
+      <c r="H25" t="s">
         <v>22</v>
       </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <v>47766</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>23</v>
       </c>
-      <c r="I25" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25">
-        <v>4383.85088</v>
-      </c>
-      <c r="Q25">
-        <v>2850</v>
+      <c r="J25">
+        <v>1126.5750559999999</v>
+      </c>
+      <c r="N25">
+        <v>1515.36</v>
+      </c>
+      <c r="O25">
+        <v>13740</v>
+      </c>
+      <c r="P25">
+        <v>1960</v>
       </c>
       <c r="R25">
-        <v>4846.1400000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>1022.88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26">
-        <v>8</v>
+        <v>39</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
       </c>
       <c r="G26">
-        <v>47758</v>
+        <v>49501</v>
       </c>
       <c r="H26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" t="s">
         <v>23</v>
       </c>
-      <c r="I26" t="s">
-        <v>30</v>
-      </c>
-      <c r="K26">
-        <v>6462.3936320000003</v>
-      </c>
-      <c r="L26">
-        <v>7366.7816000000012</v>
-      </c>
-      <c r="M26">
-        <v>2193.6</v>
-      </c>
       <c r="N26">
-        <v>448</v>
+        <v>1518.52</v>
+      </c>
+      <c r="P26">
+        <v>4000</v>
       </c>
       <c r="Q26">
-        <v>8320</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27">
-        <v>5000</v>
-      </c>
-      <c r="G27">
-        <v>46913</v>
-      </c>
-      <c r="H27" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" t="s">
-        <v>35</v>
-      </c>
-      <c r="J27">
-        <v>1520.66</v>
-      </c>
-      <c r="L27">
-        <v>2401.1</v>
-      </c>
-      <c r="P27">
-        <v>8000</v>
-      </c>
-      <c r="Q27">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28">
-        <v>50</v>
-      </c>
-      <c r="G28">
-        <v>47092</v>
-      </c>
-      <c r="H28" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28">
-        <v>384.89240000000001</v>
-      </c>
-      <c r="L28">
-        <v>5240.5190000000002</v>
+        <v>3323.14</v>
       </c>
     </row>
   </sheetData>
@@ -2641,98 +2682,726 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:S21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="2.75" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="28" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="28" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="28" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="28" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="28" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="28" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="28" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="28" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="28" customWidth="1"/>
+    <col min="12" max="12" width="7.875" style="28" customWidth="1"/>
+    <col min="13" max="13" width="5" style="28" customWidth="1"/>
+    <col min="14" max="14" width="7.25" style="28" customWidth="1"/>
+    <col min="15" max="104" width="9" style="28" customWidth="1"/>
+    <col min="105" max="16384" width="9" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="21.75" customHeight="1">
+      <c r="A1" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+    </row>
+    <row r="2" spans="1:19" s="29" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="29" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="J3" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="L3" s="51"/>
+      <c r="M3" s="52"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+    </row>
+    <row r="4" spans="1:19" s="29" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" s="27" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" s="1" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A6" s="26">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="19">
+        <v>2</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="36">
+        <v>412.45706250000012</v>
+      </c>
+      <c r="I6" s="37">
+        <v>824.92</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K6" s="22">
+        <v>35291</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="19"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+    </row>
+    <row r="7" spans="1:19" s="1" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A7" s="26">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="19">
+        <v>2</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" s="36">
+        <v>303.84336937500001</v>
+      </c>
+      <c r="I7" s="37">
+        <v>607.67999999999995</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K7" s="22">
+        <v>35281</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="19"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+    </row>
+    <row r="8" spans="1:19" s="1" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A8" s="26">
+        <v>9</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="19">
+        <v>2</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H8" s="36">
+        <v>298.34394187499998</v>
+      </c>
+      <c r="I8" s="37">
+        <v>596.67999999999995</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K8" s="22">
+        <v>35281</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="19"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A9" s="26">
+        <v>10</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="19">
+        <v>2</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H9" s="36">
+        <v>292.84451437500002</v>
+      </c>
+      <c r="I9" s="37">
+        <v>585.67999999999995</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K9" s="22">
+        <v>35281</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="19"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+    </row>
+    <row r="10" spans="1:19" s="1" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A10" s="26">
+        <v>12</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="19">
+        <v>2</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H10" s="36">
+        <v>412.45706250000012</v>
+      </c>
+      <c r="I10" s="37">
+        <v>824.92</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K10" s="22">
+        <v>35291</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="19"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+    </row>
+    <row r="11" spans="1:19" s="1" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A11" s="26">
+        <v>17</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="19">
+        <v>4</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="H11" s="36">
+        <v>73.554842812499999</v>
+      </c>
+      <c r="I11" s="37">
+        <v>294.2</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K11" s="22">
+        <v>35546</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="19"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+    </row>
+    <row r="12" spans="1:19" s="1" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A12" s="26">
+        <v>24</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="19">
+        <v>4</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="H12" s="36">
+        <v>255.72337874999999</v>
+      </c>
+      <c r="I12" s="37">
+        <v>1022.88</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K12" s="22">
+        <v>35573</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="19"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+    </row>
+    <row r="13" spans="1:19" s="27" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+    </row>
+    <row r="14" spans="1:19" s="27" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A14" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="45"/>
+    </row>
+    <row r="15" spans="1:19" s="27" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A15" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="45"/>
+    </row>
+    <row r="16" spans="1:19" s="27" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A16" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="48"/>
+    </row>
+    <row r="17" spans="1:13" s="27" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" s="27" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" s="27" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="H19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" s="27" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="H20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" s="27" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A16:N16"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:N14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="43.375" customWidth="1"/>
+    <col min="2" max="2" width="57.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="28" t="s">
-        <v>92</v>
+      <c r="A1" t="s">
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2740,39 +3409,47 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2792,42 +3469,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="29" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="29" customWidth="1"/>
-    <col min="4" max="4" width="8.25" style="29" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="29" customWidth="1"/>
-    <col min="7" max="7" width="7.75" style="29" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="29" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="29" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="29" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="29" customWidth="1"/>
-    <col min="12" max="12" width="7.875" style="29" customWidth="1"/>
-    <col min="13" max="13" width="5" style="29" customWidth="1"/>
-    <col min="14" max="14" width="7.25" style="29" customWidth="1"/>
-    <col min="15" max="99" width="9" style="29" customWidth="1"/>
-    <col min="100" max="16384" width="9" style="29"/>
+    <col min="1" max="1" width="2.75" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="28" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="28" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="28" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="28" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="28" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="28" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="28" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="28" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="28" customWidth="1"/>
+    <col min="12" max="12" width="7.875" style="28" customWidth="1"/>
+    <col min="13" max="13" width="5" style="28" customWidth="1"/>
+    <col min="14" max="14" width="7.25" style="28" customWidth="1"/>
+    <col min="15" max="104" width="9" style="28" customWidth="1"/>
+    <col min="105" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21.75" customHeight="1">
-      <c r="A1" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-    </row>
-    <row r="2" spans="1:19" s="30" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A1" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+    </row>
+    <row r="2" spans="1:19" s="29" customFormat="1" ht="20.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2836,35 +3513,35 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:19" s="30" customFormat="1" ht="32.25" customHeight="1">
+    <row r="3" spans="1:19" s="29" customFormat="1" ht="32.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="J3" s="16" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="K3" s="17">
         <v>43619</v>
       </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-    </row>
-    <row r="4" spans="1:19" s="30" customFormat="1" ht="20.25" customHeight="1">
+      <c r="L3" s="51"/>
+      <c r="M3" s="52"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+    </row>
+    <row r="4" spans="1:19" s="29" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="2"/>
@@ -2891,16 +3568,16 @@
         <v>4</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>6</v>
@@ -2912,7 +3589,7 @@
         <v>8</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -2922,43 +3599,43 @@
     </row>
     <row r="6" spans="1:19" s="1" customFormat="1" ht="42.75" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E6" s="19">
         <v>6</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="37">
+        <v>112</v>
+      </c>
+      <c r="H6" s="36">
         <v>300</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="37">
         <v>1800</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="K6" s="22">
         <v>43619</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="N6" s="19"/>
       <c r="O6" s="27"/>
@@ -2975,8 +3652,8 @@
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40">
+      <c r="H7" s="38"/>
+      <c r="I7" s="39">
         <v>1800</v>
       </c>
       <c r="J7" s="23"/>
@@ -2986,67 +3663,67 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:19" s="27" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A8" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="46"/>
+      <c r="A8" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="45"/>
     </row>
     <row r="9" spans="1:19" s="27" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A9" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="46"/>
+      <c r="A9" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="45"/>
     </row>
     <row r="10" spans="1:19" s="27" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A10" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="49"/>
+      <c r="A10" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="48"/>
     </row>
     <row r="11" spans="1:19" s="27" customFormat="1" ht="14.25" customHeight="1">
       <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:19" s="27" customFormat="1" ht="19.5" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3063,13 +3740,13 @@
     </row>
     <row r="13" spans="1:19" s="27" customFormat="1" ht="32.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="H13" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -3079,13 +3756,13 @@
     </row>
     <row r="14" spans="1:19" s="27" customFormat="1" ht="19.5" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="H14" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3095,13 +3772,13 @@
     </row>
     <row r="15" spans="1:19" s="27" customFormat="1" ht="22.5" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -3129,64 +3806,64 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="29" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="29" customWidth="1"/>
-    <col min="4" max="4" width="8.25" style="29" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="29" customWidth="1"/>
-    <col min="6" max="7" width="7.75" style="29" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="29" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="29" customWidth="1"/>
-    <col min="10" max="10" width="11" style="29" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="29" customWidth="1"/>
-    <col min="12" max="12" width="8.625" style="29" customWidth="1"/>
-    <col min="13" max="14" width="7.25" style="29" customWidth="1"/>
-    <col min="15" max="98" width="9" style="29" customWidth="1"/>
-    <col min="99" max="16384" width="9" style="29"/>
+    <col min="1" max="1" width="5.25" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="28" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="28" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="28" customWidth="1"/>
+    <col min="6" max="7" width="7.75" style="28" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="28" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="28" customWidth="1"/>
+    <col min="10" max="10" width="11" style="28" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="28" customWidth="1"/>
+    <col min="12" max="12" width="8.625" style="28" customWidth="1"/>
+    <col min="13" max="14" width="7.25" style="28" customWidth="1"/>
+    <col min="15" max="103" width="9" style="28" customWidth="1"/>
+    <col min="104" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="32" customFormat="1" ht="36" customHeight="1">
-      <c r="A1" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-    </row>
-    <row r="2" spans="1:20" s="32" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="57" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-    </row>
-    <row r="3" spans="1:20" s="34" customFormat="1" ht="20.25" customHeight="1">
+    <row r="1" spans="1:20" s="30" customFormat="1" ht="36" customHeight="1">
+      <c r="A1" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+    </row>
+    <row r="2" spans="1:20" s="30" customFormat="1" ht="36" customHeight="1">
+      <c r="A2" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+    </row>
+    <row r="3" spans="1:20" s="32" customFormat="1" ht="20.25" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -3194,140 +3871,140 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="34" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="34" customFormat="1" ht="22.5" customHeight="1">
+      <c r="I3" s="32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="32" customFormat="1" ht="22.5" customHeight="1">
       <c r="A4" s="8"/>
       <c r="I4" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-    </row>
-    <row r="5" spans="1:20" s="34" customFormat="1" ht="21.75" customHeight="1">
+        <v>128</v>
+      </c>
+      <c r="L4" s="64"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+    </row>
+    <row r="5" spans="1:20" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="A5" s="8"/>
       <c r="I5" s="15"/>
-      <c r="L5" s="33"/>
+      <c r="L5" s="31"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="P5" s="35"/>
-    </row>
-    <row r="6" spans="1:20" s="34" customFormat="1" ht="20.25" customHeight="1">
+      <c r="P5" s="33"/>
+    </row>
+    <row r="6" spans="1:20" s="32" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="I6" s="15" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
     </row>
-    <row r="7" spans="1:20" s="34" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:20" s="32" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="I7" s="15" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
     </row>
-    <row r="8" spans="1:20" s="34" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:20" s="32" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>146</v>
+        <v>132</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>133</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
     </row>
-    <row r="9" spans="1:20" s="34" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:20" s="32" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>146</v>
+        <v>135</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>133</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
     </row>
-    <row r="10" spans="1:20" s="31" customFormat="1" ht="63.75" customHeight="1">
+    <row r="10" spans="1:20" s="35" customFormat="1" ht="63.75" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
@@ -3338,43 +4015,43 @@
     </row>
     <row r="11" spans="1:20" s="1" customFormat="1" ht="42.75" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E11" s="19">
         <v>9</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="H11" s="41">
+        <v>151</v>
+      </c>
+      <c r="H11" s="40">
         <v>17.510000000000002</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="40">
         <v>35.020000000000003</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="K11" s="21">
         <v>45256</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="N11" s="22"/>
       <c r="O11" s="27"/>
@@ -3392,101 +4069,101 @@
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
-      <c r="H12" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="I12" s="43">
+      <c r="H12" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="I12" s="42">
         <v>1894.84</v>
       </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-    </row>
-    <row r="13" spans="1:20" s="31" customFormat="1" ht="33" customHeight="1">
-      <c r="A13" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-    </row>
-    <row r="14" spans="1:20" s="31" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A14" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="46"/>
-    </row>
-    <row r="15" spans="1:20" s="31" customFormat="1">
-      <c r="A15" s="67" t="s">
-        <v>170</v>
-      </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="69"/>
-    </row>
-    <row r="16" spans="1:20" s="31" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A16" s="70" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="49"/>
-    </row>
-    <row r="17" spans="1:14" s="31" customFormat="1" ht="27.75" customHeight="1">
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+    </row>
+    <row r="13" spans="1:20" s="35" customFormat="1" ht="33" customHeight="1">
+      <c r="A13" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="69"/>
+    </row>
+    <row r="14" spans="1:20" s="35" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A14" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="45"/>
+    </row>
+    <row r="15" spans="1:20" s="35" customFormat="1">
+      <c r="A15" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="59"/>
+    </row>
+    <row r="16" spans="1:20" s="35" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A16" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="48"/>
+    </row>
+    <row r="17" spans="1:14" s="35" customFormat="1" ht="27.75" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="13"/>
@@ -3502,15 +4179,15 @@
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
     </row>
-    <row r="18" spans="1:14" s="31" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A18" s="71" t="s">
-        <v>173</v>
-      </c>
-      <c r="B18" s="68"/>
+    <row r="18" spans="1:14" s="35" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A18" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="58"/>
       <c r="C18" s="13"/>
       <c r="D18" s="8"/>
       <c r="E18" s="15" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
@@ -3522,18 +4199,18 @@
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
     </row>
-    <row r="19" spans="1:14" s="31" customFormat="1" ht="23.45" customHeight="1">
+    <row r="19" spans="1:14" s="35" customFormat="1" ht="23.45" customHeight="1">
       <c r="A19" s="15" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="71" t="s">
-        <v>176</v>
-      </c>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
+      <c r="E19" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
       <c r="H19" s="15"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -3542,15 +4219,15 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14" s="31" customFormat="1" ht="22.5" customHeight="1">
+    <row r="20" spans="1:14" s="35" customFormat="1" ht="22.5" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -3564,20 +4241,2744 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A14:N14"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="A16:N16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="E19:G19"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="P4:T4"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:N13"/>
+    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A16:N16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="E19:G19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:T26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="28" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="28" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="28" customWidth="1"/>
+    <col min="6" max="7" width="7.75" style="28" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="28" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="28" customWidth="1"/>
+    <col min="10" max="10" width="11" style="28" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="28" customWidth="1"/>
+    <col min="12" max="12" width="8.625" style="28" customWidth="1"/>
+    <col min="13" max="14" width="7.25" style="28" customWidth="1"/>
+    <col min="15" max="103" width="9" style="28" customWidth="1"/>
+    <col min="104" max="16384" width="9" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="30" customFormat="1" ht="36" customHeight="1">
+      <c r="A1" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+    </row>
+    <row r="2" spans="1:20" s="30" customFormat="1" ht="36" customHeight="1">
+      <c r="A2" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+    </row>
+    <row r="3" spans="1:20" s="32" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="I3" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="32" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="I4" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L4" s="64"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+    </row>
+    <row r="5" spans="1:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="I5" s="15"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="P5" s="33"/>
+    </row>
+    <row r="6" spans="1:20" s="32" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="I6" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:20" s="32" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A7" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="I7" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:20" s="32" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A8" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="I8" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="1:20" s="32" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A9" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="I9" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:20" s="35" customFormat="1" ht="63.75" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+    </row>
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="19">
+        <v>10</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="40">
+        <v>33.21</v>
+      </c>
+      <c r="I11" s="40">
+        <v>332.1</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="21">
+        <v>35297</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="22"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+    </row>
+    <row r="12" spans="1:20" s="1" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A12" s="7">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="19">
+        <v>10</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H12" s="40">
+        <v>32.19</v>
+      </c>
+      <c r="I12" s="40">
+        <v>321.89999999999998</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K12" s="21">
+        <v>35297</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="22"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+    </row>
+    <row r="13" spans="1:20" s="1" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="19">
+        <v>6</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="40">
+        <v>36.270000000000003</v>
+      </c>
+      <c r="I13" s="40">
+        <v>217.62</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" s="21">
+        <v>35297</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+    </row>
+    <row r="14" spans="1:20" s="1" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A14" s="7">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="19">
+        <v>4</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="40">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="I14" s="40">
+        <v>133.36000000000001</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K14" s="21">
+        <v>35359</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="22"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+    </row>
+    <row r="15" spans="1:20" s="1" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="19">
+        <v>18</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H15" s="40">
+        <v>43.19</v>
+      </c>
+      <c r="I15" s="40">
+        <v>777.42</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K15" s="21">
+        <v>35281</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="22"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+    </row>
+    <row r="16" spans="1:20" s="1" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A16" s="7">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="19">
+        <v>8</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" s="40">
+        <v>22.51</v>
+      </c>
+      <c r="I16" s="40">
+        <v>180.08</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" s="21">
+        <v>35573</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+    </row>
+    <row r="17" spans="1:20" s="1" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A17" s="7">
+        <v>22</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="19">
+        <v>4</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H17" s="40">
+        <v>64.97</v>
+      </c>
+      <c r="I17" s="40">
+        <v>259.88</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" s="21">
+        <v>35505</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="22"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+    </row>
+    <row r="18" spans="1:20" s="8" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+    </row>
+    <row r="19" spans="1:20" s="35" customFormat="1" ht="33" customHeight="1">
+      <c r="A19" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="69"/>
+    </row>
+    <row r="20" spans="1:20" s="35" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A20" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="45"/>
+    </row>
+    <row r="21" spans="1:20" s="35" customFormat="1">
+      <c r="A21" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="59"/>
+    </row>
+    <row r="22" spans="1:20" s="35" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A22" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="48"/>
+    </row>
+    <row r="23" spans="1:20" s="35" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A23" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+    </row>
+    <row r="24" spans="1:20" s="35" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A24" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="58"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+    </row>
+    <row r="25" spans="1:20" s="35" customFormat="1" ht="23.45" customHeight="1">
+      <c r="A25" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" spans="1:20" s="35" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A26" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:N19"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A21:N21"/>
+    <mergeCell ref="A22:N22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="E25:G25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="28" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="28" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="28" customWidth="1"/>
+    <col min="6" max="7" width="7.75" style="28" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="28" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="28" customWidth="1"/>
+    <col min="10" max="10" width="11" style="28" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="28" customWidth="1"/>
+    <col min="12" max="12" width="8.625" style="28" customWidth="1"/>
+    <col min="13" max="14" width="7.25" style="28" customWidth="1"/>
+    <col min="15" max="103" width="9" style="28" customWidth="1"/>
+    <col min="104" max="16384" width="9" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="30" customFormat="1" ht="36" customHeight="1">
+      <c r="A1" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+    </row>
+    <row r="2" spans="1:20" s="30" customFormat="1" ht="36" customHeight="1">
+      <c r="A2" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+    </row>
+    <row r="3" spans="1:20" s="32" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="I3" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="32" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="I4" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" t="s">
+        <v>176</v>
+      </c>
+      <c r="L4" s="64"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+    </row>
+    <row r="5" spans="1:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="I5" s="15"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="P5" s="33"/>
+    </row>
+    <row r="6" spans="1:20" s="32" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="I6" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:20" s="32" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A7" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="I7" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:20" s="32" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A8" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="I8" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="1:20" s="32" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A9" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="I9" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:20" s="35" customFormat="1" ht="63.75" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+    </row>
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="19">
+        <v>2</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="40">
+        <v>44.58</v>
+      </c>
+      <c r="I11" s="40">
+        <v>89.15</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="K11" s="21">
+        <v>35291</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="22"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+    </row>
+    <row r="12" spans="1:20" s="8" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+    </row>
+    <row r="13" spans="1:20" s="35" customFormat="1" ht="33" customHeight="1">
+      <c r="A13" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="69"/>
+    </row>
+    <row r="14" spans="1:20" s="35" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A14" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="45"/>
+    </row>
+    <row r="15" spans="1:20" s="35" customFormat="1">
+      <c r="A15" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="59"/>
+    </row>
+    <row r="16" spans="1:20" s="35" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A16" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="48"/>
+    </row>
+    <row r="17" spans="1:14" s="35" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A17" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="1:14" s="35" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A18" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" s="35" customFormat="1" ht="23.45" customHeight="1">
+      <c r="A19" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="1:14" s="35" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A20" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:N13"/>
+    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A16:N16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="E19:G19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="28" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="28" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="28" customWidth="1"/>
+    <col min="6" max="7" width="7.75" style="28" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="28" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="28" customWidth="1"/>
+    <col min="10" max="10" width="11" style="28" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="28" customWidth="1"/>
+    <col min="12" max="12" width="8.625" style="28" customWidth="1"/>
+    <col min="13" max="14" width="7.25" style="28" customWidth="1"/>
+    <col min="15" max="103" width="9" style="28" customWidth="1"/>
+    <col min="104" max="16384" width="9" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="30" customFormat="1" ht="36" customHeight="1">
+      <c r="A1" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+    </row>
+    <row r="2" spans="1:20" s="30" customFormat="1" ht="36" customHeight="1">
+      <c r="A2" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+    </row>
+    <row r="3" spans="1:20" s="32" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="I3" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="32" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="I4" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L4" s="64"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+    </row>
+    <row r="5" spans="1:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="I5" s="15"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="P5" s="33"/>
+    </row>
+    <row r="6" spans="1:20" s="32" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="I6" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:20" s="32" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A7" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="I7" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:20" s="32" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A8" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="I8" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="1:20" s="32" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A9" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="I9" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:20" s="35" customFormat="1" ht="63.75" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+    </row>
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="19">
+        <v>10</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="H11" s="40">
+        <v>56.99</v>
+      </c>
+      <c r="I11" s="40">
+        <v>569.9</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="K11" s="21">
+        <v>35359</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="22"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+    </row>
+    <row r="12" spans="1:20" s="8" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+    </row>
+    <row r="13" spans="1:20" s="35" customFormat="1" ht="33" customHeight="1">
+      <c r="A13" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="69"/>
+    </row>
+    <row r="14" spans="1:20" s="35" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A14" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="45"/>
+    </row>
+    <row r="15" spans="1:20" s="35" customFormat="1">
+      <c r="A15" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="59"/>
+    </row>
+    <row r="16" spans="1:20" s="35" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A16" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="48"/>
+    </row>
+    <row r="17" spans="1:14" s="35" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A17" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="1:14" s="35" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A18" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" s="35" customFormat="1" ht="23.45" customHeight="1">
+      <c r="A19" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="1:14" s="35" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A20" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:N13"/>
+    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A16:N16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="E19:G19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:S16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="2.75" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="28" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="28" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="28" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="28" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="28" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="28" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="28" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="28" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="28" customWidth="1"/>
+    <col min="12" max="12" width="7.875" style="28" customWidth="1"/>
+    <col min="13" max="13" width="5" style="28" customWidth="1"/>
+    <col min="14" max="14" width="7.25" style="28" customWidth="1"/>
+    <col min="15" max="104" width="9" style="28" customWidth="1"/>
+    <col min="105" max="16384" width="9" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="21.75" customHeight="1">
+      <c r="A1" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+    </row>
+    <row r="2" spans="1:19" s="29" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="29" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="J3" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="L3" s="51"/>
+      <c r="M3" s="52"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+    </row>
+    <row r="4" spans="1:19" s="29" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" s="27" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" s="1" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A6" s="26">
+        <v>15</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="19">
+        <v>6</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="H6" s="36">
+        <v>380</v>
+      </c>
+      <c r="I6" s="37">
+        <v>5700</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="K6" s="22">
+        <v>35546</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="19">
+        <v>15</v>
+      </c>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+    </row>
+    <row r="7" spans="1:19" s="1" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A7" s="26">
+        <v>19</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="19">
+        <v>8</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="36">
+        <v>1330</v>
+      </c>
+      <c r="I7" s="37">
+        <v>19950</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="K7" s="22">
+        <v>35546</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="19">
+        <v>15</v>
+      </c>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+    </row>
+    <row r="8" spans="1:19" s="27" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+    </row>
+    <row r="9" spans="1:19" s="27" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A9" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="45"/>
+    </row>
+    <row r="10" spans="1:19" s="27" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A10" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="45"/>
+    </row>
+    <row r="11" spans="1:19" s="27" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A11" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="48"/>
+    </row>
+    <row r="12" spans="1:19" s="27" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" s="27" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" s="27" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="H14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" s="27" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="H15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" s="27" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:N9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:S21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="2.75" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="28" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="28" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="28" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="28" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="28" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="28" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="28" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="28" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="28" customWidth="1"/>
+    <col min="12" max="12" width="7.875" style="28" customWidth="1"/>
+    <col min="13" max="13" width="5" style="28" customWidth="1"/>
+    <col min="14" max="14" width="7.25" style="28" customWidth="1"/>
+    <col min="15" max="104" width="9" style="28" customWidth="1"/>
+    <col min="105" max="16384" width="9" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="21.75" customHeight="1">
+      <c r="A1" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+    </row>
+    <row r="2" spans="1:19" s="29" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="29" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="J3" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="L3" s="51"/>
+      <c r="M3" s="52"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+    </row>
+    <row r="4" spans="1:19" s="29" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" s="27" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" s="1" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A6" s="26">
+        <v>13</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="19">
+        <v>4</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" s="36">
+        <v>13950</v>
+      </c>
+      <c r="I6" s="37">
+        <v>55800</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="K6" s="22">
+        <v>35573</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="19"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+    </row>
+    <row r="7" spans="1:19" s="1" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A7" s="26">
+        <v>14</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="19">
+        <v>8</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" s="36">
+        <v>7950</v>
+      </c>
+      <c r="I7" s="37">
+        <v>63600</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="K7" s="22">
+        <v>35573</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="19"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+    </row>
+    <row r="8" spans="1:19" s="1" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A8" s="26">
+        <v>18</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="19">
+        <v>2</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="H8" s="36">
+        <v>14590</v>
+      </c>
+      <c r="I8" s="37">
+        <v>29180</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="K8" s="22">
+        <v>35573</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="19"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A9" s="26">
+        <v>20</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="19">
+        <v>2</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="36">
+        <v>189.32</v>
+      </c>
+      <c r="I9" s="37">
+        <v>378.64</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="K9" s="22">
+        <v>35546</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="19"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+    </row>
+    <row r="10" spans="1:19" s="1" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A10" s="26">
+        <v>21</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="19">
+        <v>8</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" s="36">
+        <v>651.74</v>
+      </c>
+      <c r="I10" s="37">
+        <v>5213.92</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="22">
+        <v>35573</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="19"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+    </row>
+    <row r="11" spans="1:19" s="1" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A11" s="26">
+        <v>23</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="19">
+        <v>8</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="H11" s="36">
+        <v>13590</v>
+      </c>
+      <c r="I11" s="37">
+        <v>108720</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="K11" s="22">
+        <v>35546</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="19"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+    </row>
+    <row r="12" spans="1:19" s="1" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A12" s="26">
+        <v>25</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="19">
+        <v>2</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H12" s="36">
+        <v>759.26</v>
+      </c>
+      <c r="I12" s="37">
+        <v>1518.52</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="K12" s="22">
+        <v>49501</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="19"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+    </row>
+    <row r="13" spans="1:19" s="27" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+    </row>
+    <row r="14" spans="1:19" s="27" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A14" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="45"/>
+    </row>
+    <row r="15" spans="1:19" s="27" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A15" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="45"/>
+    </row>
+    <row r="16" spans="1:19" s="27" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A16" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="48"/>
+    </row>
+    <row r="17" spans="1:13" s="27" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" s="27" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" s="27" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="H19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" s="27" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="H20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" s="27" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A16:N16"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:N14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>